--- a/src/main/resources/caseconf/JobQuery/Case_userJobQuery.xlsx
+++ b/src/main/resources/caseconf/JobQuery/Case_userJobQuery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="userjobquery" sheetId="2" r:id="rId1"/>
@@ -365,16 +365,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE FROM user_info_item WHERE tenant_id = "1001" and tenant_user_id = "111111";
 DELETE FROM user_basic_info WHERE tenant_id = "1001" and tenant_user_id = "111111";
 DELETE FROM user_index WHERE tenant_id = "1001" and tenant_user_id = "111111";
@@ -460,6 +450,15 @@
   </si>
   <si>
     <t>007</t>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
   </si>
 </sst>
 </file>
@@ -924,7 +923,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -992,7 +991,7 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
@@ -1005,16 +1004,16 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>13</v>
@@ -1024,7 +1023,7 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -1033,10 +1032,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>17</v>
@@ -1048,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>13</v>
@@ -1058,7 +1057,7 @@
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1082,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>13</v>
@@ -1092,7 +1091,7 @@
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -1116,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>13</v>
@@ -1126,7 +1125,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1150,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>13</v>
@@ -1160,7 +1159,7 @@
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1184,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>13</v>
@@ -1194,7 +1193,7 @@
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -1203,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -1218,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>13</v>
@@ -1228,7 +1227,7 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="9"/>
     </row>

--- a/src/main/resources/caseconf/JobQuery/Case_userJobQuery.xlsx
+++ b/src/main/resources/caseconf/JobQuery/Case_userJobQuery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="-9040" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userjobquery" sheetId="2" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>exectResult</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -405,29 +401,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode":"E0000",
-    "resMsg":"成功",
-    "successful":1,
-    "data":{
-        "userId":699222007535509999,
-        "tenantId":"1001",
-        "tenantUserId":"111111",
-        "industry":"软件",
-        "occupation":"测试",
-        "company":"闪银",
-        "job":"软件测试",
-        "companyCity":"北京",
-        "companyAddress":"朝阳",
-        "companyPhone":"006200002220079",
-        "companyEmail":"wang@gmail.com",
-        "monthlySalary":40000000.00,
-        "yn":0
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -450,6 +423,10 @@
   </si>
   <si>
     <t>007</t>
+  </si>
+  <si>
+    <t>exectResult</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509999","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -458,7 +435,34 @@
 insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '699222007535509999', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
+insert into `seraph`.`user_job` ( `id`,`user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '18870','699222007535509999', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode":"E0000",
+    "resMsg":"成功",
+    "successful":1,
+    "data":{
+        "companyCity":"北京",
+        "occupation":"测试",
+        "tenantUserId":"111111",
+        "industry":"软件",
+        "updateTime":"2020-04-17T14:52:38.000+0800",
+        "userId":699222007535509999,
+        "monthlySalary":40000000.00,
+        "companyEmail":"wang@gmail.com",
+        "companyPhone":"006200002220079",
+        "createTime":"2020-04-17T14:52:38.000+0800",
+        "yn":0,
+        "companyAddress":"朝阳",
+        "tenantId":"1001",
+        "company":"闪银",
+        "id":18870,
+        "job":"软件测试"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -633,6 +637,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,10 +927,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,7 +947,7 @@
     <col min="10" max="10" width="24.1640625" style="13" customWidth="1"/>
     <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="49.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
     <col min="15" max="16384" width="11" style="5"/>
   </cols>
@@ -983,251 +990,251 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="J2" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="20"/>
       <c r="H6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="20"/>
       <c r="H8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" s="9"/>
     </row>
